--- a/Java基礎総合課題/テスト報告書_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/テスト報告書_対話型電卓プログラム.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -599,10 +599,6 @@
     <t>変数 代入 [数値|変数] 演算子 [数値|変数] 演算子 [数値|変数]</t>
   </si>
   <si>
-    <t>変数 代入 [数値|変数] 演算子 [数値|変数] 演算子 [数値|変数]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>の時に代入ができる</t>
     <rPh sb="1" eb="2">
       <t>トキ</t>
@@ -1241,22 +1237,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下文法エラーの実行結果</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンポウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実行結果のスクリーンショット</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
@@ -1306,6 +1286,201 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文法エラーの実行結果</t>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文法エラーの実行結果の続き</t>
+    <rPh sb="11" eb="12">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算結果オーバーフローの場合は変数には何も入らない実行結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 代入 [数値|変数] 演算子 [数値|変数] 演算子 [数値|変数]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[数値|変数] 演算子 [数値|変数]　１パターンの実行結果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 代入 [数値|変数] 演算子 [数値|変数] 演算子 [数値|変数]　４パターンの実行結果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再代入の実行結果</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エビデンス(正常系)</t>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エビデンス(異常系)</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：計算結果がオーバフローした時に代入しようとする実行結果を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：入力構文のそれぞれ５パターン実行したことを証明する実行結果を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：再代入の実行結果を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイダイニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数の現在値</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゲンザイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2029,7 +2204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,6 +2497,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,23 +2836,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4" descr="Calculator - NetBeans IDE 8.2">
+        <xdr:cNvPr id="7" name="図 6" descr="Calculator - NetBeans IDE 8.2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565138B0-4586-451B-9449-95BDD159757B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC7C05A-5717-40F7-ADE4-F51D6C324FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,13 +2868,160 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="821" t="2959" r="1041" b="969"/>
+        <a:srcRect l="1191" t="9728" r="1603" b="946"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9610726" y="495300"/>
-          <a:ext cx="9105900" cy="9582150"/>
+          <a:off x="10039349" y="485774"/>
+          <a:ext cx="9820276" cy="14687551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="Calculator - NetBeans IDE 8.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E54DC0-0B94-4F77-92D9-7BF34ACF3FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1731" t="14642" r="2513"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="18592800"/>
+          <a:ext cx="4743450" cy="1943418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="Calculator - NetBeans IDE 8.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D970C81-7D8C-4371-81DF-47692DE81A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1923" t="10239" r="2322" b="2725"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725026" y="15497175"/>
+          <a:ext cx="4743450" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10" descr="Calculator - NetBeans IDE 8.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5D98CC-CBF2-4746-9F06-4A92AEC7397F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1923" t="10441" r="2514" b="2545"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="20964525"/>
+          <a:ext cx="4733925" cy="2619376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2806,13 +3137,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>191395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2841,8 +3172,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9477375" y="12877800"/>
+          <a:off x="9477375" y="13115925"/>
           <a:ext cx="6838950" cy="6125470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>143303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="Calculator - NetBeans IDE 8.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E9767B-864E-461C-9585-45992284A4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1325" t="10834" r="1471"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="19783425"/>
+          <a:ext cx="6867525" cy="2743628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3176,10 +3556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3187,7 +3567,7 @@
     <col min="1" max="1" width="4" style="24" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="24" customWidth="1"/>
     <col min="3" max="3" width="10" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.75" style="24" customWidth="1"/>
     <col min="6" max="6" width="4.625" style="24" customWidth="1"/>
     <col min="7" max="256" width="9" style="24"/>
@@ -3658,7 +4038,7 @@
         <v>42849</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>14</v>
@@ -3672,13 +4052,13 @@
         <v>42849</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -3686,13 +4066,13 @@
         <v>42849</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -3700,13 +4080,13 @@
         <v>42849</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -3714,13 +4094,13 @@
         <v>42849</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -3728,13 +4108,13 @@
         <v>42849</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -3742,13 +4122,13 @@
         <v>42849</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -3756,13 +4136,13 @@
         <v>42849</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>131</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -3770,13 +4150,13 @@
         <v>42851</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="89" t="s">
         <v>137</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -3784,13 +4164,13 @@
         <v>42851</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -3798,20 +4178,62 @@
         <v>42852</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
+      <c r="B15" s="81">
+        <v>42852</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="81">
+        <v>42852</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="81">
+        <v>42852</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4397,10 +4819,10 @@
         <v>42852</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -4410,16 +4832,16 @@
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="19">
         <v>42852</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -4437,10 +4859,10 @@
         <v>42852</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -4458,10 +4880,10 @@
         <v>42852</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -4471,16 +4893,16 @@
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="19">
         <v>42852</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -4490,16 +4912,16 @@
       </c>
       <c r="B8" s="92"/>
       <c r="C8" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="19">
         <v>42852</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -4517,10 +4939,10 @@
         <v>42852</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -4532,16 +4954,16 @@
         <v>33</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="19">
         <v>42852</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="47"/>
     </row>
@@ -4551,16 +4973,16 @@
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="19">
         <v>42852</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="47"/>
     </row>
@@ -4570,16 +4992,16 @@
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="19">
         <v>42852</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="47"/>
     </row>
@@ -4589,16 +5011,16 @@
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="19">
         <v>42852</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="47"/>
     </row>
@@ -4608,16 +5030,16 @@
       </c>
       <c r="B14" s="93"/>
       <c r="C14" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="19">
         <v>42852</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -4627,16 +5049,16 @@
       </c>
       <c r="B15" s="92"/>
       <c r="C15" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="19">
         <v>42852</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="64"/>
     </row>
@@ -4645,19 +5067,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="19">
         <v>42852</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="84"/>
     </row>
@@ -4689,16 +5111,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="19">
         <v>42852</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -4710,16 +5132,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="19">
         <v>42852</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -4728,19 +5150,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="19">
         <v>42852</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -4749,19 +5171,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="19">
         <v>42852</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -4800,10 +5222,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4811,614 +5236,1305 @@
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.25" customWidth="1"/>
+    <col min="6" max="9" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F4" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="G2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="45" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="97"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C8" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="42" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C10" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="42" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="39">
-        <v>2</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="39">
-        <v>2</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="39">
+        <v>2</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="39">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="39">
+        <v>2</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="39">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="39">
+        <v>3</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="39">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="39">
+        <v>3</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="38"/>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C20" s="39">
         <v>4</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="38"/>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="38"/>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="39">
+        <v>4</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="42" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="42" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C24" s="39">
         <v>1</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="42" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="38" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="42" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C26" s="39">
         <v>12</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="42" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C27" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="39">
-        <v>1</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="39">
-        <v>9</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="39">
+        <v>1</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="38"/>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C30" s="39">
+        <v>9</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="38"/>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="38"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="39">
+        <v>2</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E32" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="42" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C33" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="38" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="42" t="s">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C34" s="39">
         <v>30</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D34" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="42" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="42" t="s">
+      <c r="D35" s="43"/>
+      <c r="E35" s="38"/>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C36" s="39">
         <v>6</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D36" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="42" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C37" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="42" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="38"/>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C38" s="39">
         <v>12</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D38" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="42" t="s">
+      <c r="E38" s="38"/>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C39" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="39">
-        <v>8</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="39">
-        <v>9</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="39">
+        <v>8</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="39">
-        <v>8</v>
+      <c r="C41" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="C42" s="39">
+        <v>9</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="39">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="C44" s="39">
+        <v>8</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="38"/>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="39">
-        <v>6</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>72</v>
+      <c r="C46" s="39">
+        <v>8</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="38"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="39">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="39">
+        <v>6</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C49" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="38"/>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="39">
+        <v>16</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="38"/>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="38"/>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="39">
+        <v>16</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="42" t="s">
+      <c r="D53" s="43"/>
+      <c r="E53" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="39">
-        <v>16</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="42" t="s">
+      <c r="C54" s="39">
+        <v>11</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="42" t="s">
+      <c r="C55" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="38"/>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C56" s="39">
         <v>11</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="42" t="s">
+      <c r="D56" s="43"/>
+      <c r="E56" s="38"/>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C57" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="39">
+        <v>8</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="39">
-        <v>11</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="39">
-        <v>8</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="39" t="s">
+      <c r="D59" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="38"/>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="65" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="K66" s="98"/>
+      <c r="L66" s="98"/>
+    </row>
+    <row r="67" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="K67" s="98"/>
+      <c r="L67" s="98"/>
+    </row>
+    <row r="68" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="K68" s="98"/>
+      <c r="L68" s="98"/>
+    </row>
+    <row r="69" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J69" s="99"/>
+    </row>
+    <row r="78" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J78" s="98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J88" s="98" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5430,7 +6546,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -5440,16 +6556,16 @@
       <c r="C2" s="94"/>
       <c r="D2" s="94"/>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="94"/>
       <c r="D3" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -5457,10 +6573,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -5468,16 +6584,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="50"/>
     </row>
@@ -5486,10 +6602,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -5497,16 +6613,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="50"/>
     </row>
@@ -5515,10 +6631,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -5526,7 +6642,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="38"/>
     </row>
@@ -5535,10 +6651,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -5546,10 +6662,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -5560,7 +6676,7 @@
         <v>-10</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -5568,11 +6684,11 @@
         <v>24</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="52"/>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -5580,7 +6696,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="52"/>
     </row>
@@ -5589,7 +6705,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="52"/>
     </row>
@@ -5598,7 +6714,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="52"/>
     </row>
@@ -5608,7 +6724,7 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -5616,15 +6732,15 @@
         <v>25</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="67" t="s">
         <v>29</v>
@@ -5633,7 +6749,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="67" t="s">
         <v>49</v>
@@ -5642,7 +6758,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="67" t="s">
         <v>66</v>
@@ -5651,25 +6767,25 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="79"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="67" t="s">
         <v>68</v>
@@ -5678,30 +6794,40 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="52"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="78"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F83" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
